--- a/BillingSystemInfo.xlsx
+++ b/BillingSystemInfo.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16275" windowHeight="8250"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="16275" windowHeight="6345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
+    <sheet name="BHN_REF" sheetId="2" r:id="rId2"/>
+    <sheet name="NYC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="357">
   <si>
     <t>CSG</t>
   </si>
@@ -502,13 +504,601 @@
   </si>
   <si>
     <t>Region ID</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>LOC1, LOC2, LOCT1, LOCT2, LD1, LD2, LD3</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>&lt;&gt; LOC1, LOC2, LOCT1, LOCT2, LD1, LD2, nor LD3</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>TERR01</t>
+  </si>
+  <si>
+    <t>TERR02</t>
+  </si>
+  <si>
+    <t>TERR03</t>
+  </si>
+  <si>
+    <t>TERR04</t>
+  </si>
+  <si>
+    <t>TERR05</t>
+  </si>
+  <si>
+    <t>TERR06</t>
+  </si>
+  <si>
+    <t>TERR07</t>
+  </si>
+  <si>
+    <t>LD1</t>
+  </si>
+  <si>
+    <t>LD2</t>
+  </si>
+  <si>
+    <t>LD3</t>
+  </si>
+  <si>
+    <t>LD4</t>
+  </si>
+  <si>
+    <t>LD5</t>
+  </si>
+  <si>
+    <t>LD6</t>
+  </si>
+  <si>
+    <t>LD7</t>
+  </si>
+  <si>
+    <t>LOCT1</t>
+  </si>
+  <si>
+    <t>LOCT2</t>
+  </si>
+  <si>
+    <t>LOC1</t>
+  </si>
+  <si>
+    <t>LOC2</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>OA1</t>
+  </si>
+  <si>
+    <t>OA2</t>
+  </si>
+  <si>
+    <t>OA3</t>
+  </si>
+  <si>
+    <t>OA4</t>
+  </si>
+  <si>
+    <t>OA5</t>
+  </si>
+  <si>
+    <t>OA6</t>
+  </si>
+  <si>
+    <t>OA8</t>
+  </si>
+  <si>
+    <t>LOC1 or LOC2</t>
+  </si>
+  <si>
+    <t>LOCT1, LOCT2, LD1, LD2, or LD3</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>ChargFile_callType</t>
+  </si>
+  <si>
+    <t>CallType</t>
+  </si>
+  <si>
+    <t>CallCompCallType</t>
+  </si>
+  <si>
+    <t>CreditDebitInd</t>
+  </si>
+  <si>
+    <t>Table B9d: CSG Detail record format</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Reserved 1</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Alpha Numeric</t>
+  </si>
+  <si>
+    <t>FINANCE ENTITY</t>
+  </si>
+  <si>
+    <t>Cycle Day</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Lookup CYCLE_DAY in Subscriber Usage Cycle Table (use USAGE CYCLE ID to look up value)</t>
+  </si>
+  <si>
+    <t>Reserved 3</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>ACCOUNT NUMBER</t>
+  </si>
+  <si>
+    <t>Billing Telephone Number</t>
+  </si>
+  <si>
+    <t>CHARGE_NUMBER</t>
+  </si>
+  <si>
+    <t>Call Answer Time</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY HH:MI:SS AM</t>
+  </si>
+  <si>
+    <t>LOCAL CALL TIME</t>
+  </si>
+  <si>
+    <t>Reserved 4</t>
+  </si>
+  <si>
+    <t>Reserved 5</t>
+  </si>
+  <si>
+    <t>Reserved 6</t>
+  </si>
+  <si>
+    <t>Reserved 7</t>
+  </si>
+  <si>
+    <t>Reserved 8</t>
+  </si>
+  <si>
+    <t>Reserved 9</t>
+  </si>
+  <si>
+    <t>Reserved 10</t>
+  </si>
+  <si>
+    <t>Reserved 11</t>
+  </si>
+  <si>
+    <t>Reserved 12</t>
+  </si>
+  <si>
+    <t>Reserved 13</t>
+  </si>
+  <si>
+    <t>Reserved 14</t>
+  </si>
+  <si>
+    <t>Reserved 15</t>
+  </si>
+  <si>
+    <t>Reserved 16</t>
+  </si>
+  <si>
+    <t>Reserved 17</t>
+  </si>
+  <si>
+    <t>Reserved 18</t>
+  </si>
+  <si>
+    <t>Reserved 19</t>
+  </si>
+  <si>
+    <t>Reserved 20</t>
+  </si>
+  <si>
+    <t>Reserved 21</t>
+  </si>
+  <si>
+    <t>Reserved 22</t>
+  </si>
+  <si>
+    <t>Dialed Number</t>
+  </si>
+  <si>
+    <t>TERMINATING NUMBER</t>
+  </si>
+  <si>
+    <t>Reserved 23</t>
+  </si>
+  <si>
+    <t>Reserved 24</t>
+  </si>
+  <si>
+    <t>Reserved 25</t>
+  </si>
+  <si>
+    <t>Reserved 26</t>
+  </si>
+  <si>
+    <t>Reserved 27</t>
+  </si>
+  <si>
+    <t>Reserved 28</t>
+  </si>
+  <si>
+    <t>Reserved 29</t>
+  </si>
+  <si>
+    <t>Reserved 30</t>
+  </si>
+  <si>
+    <t>Reserved 31</t>
+  </si>
+  <si>
+    <t>Reserved 32</t>
+  </si>
+  <si>
+    <t>Reserved 33</t>
+  </si>
+  <si>
+    <t>Reserved 34</t>
+  </si>
+  <si>
+    <t>Reserved 35</t>
+  </si>
+  <si>
+    <t>Reserved 36</t>
+  </si>
+  <si>
+    <t>Reserved 37</t>
+  </si>
+  <si>
+    <t>Reserved 38</t>
+  </si>
+  <si>
+    <t>Reserved 39</t>
+  </si>
+  <si>
+    <t>Reserved 40</t>
+  </si>
+  <si>
+    <t>Reserved 41</t>
+  </si>
+  <si>
+    <t>Reserved 42</t>
+  </si>
+  <si>
+    <t>Reserved 43</t>
+  </si>
+  <si>
+    <t>Reserved 44</t>
+  </si>
+  <si>
+    <t>Reserved 45</t>
+  </si>
+  <si>
+    <t>Reserved 46</t>
+  </si>
+  <si>
+    <t>Reserved 47</t>
+  </si>
+  <si>
+    <t>Reserved 48</t>
+  </si>
+  <si>
+    <t>Reserved 49</t>
+  </si>
+  <si>
+    <t>Reserved 50</t>
+  </si>
+  <si>
+    <t>Reserved 51</t>
+  </si>
+  <si>
+    <t>Reserved 52</t>
+  </si>
+  <si>
+    <t>Originating City</t>
+  </si>
+  <si>
+    <t>ORIG_CITY</t>
+  </si>
+  <si>
+    <t>Originating State</t>
+  </si>
+  <si>
+    <t>ORIG_STATE</t>
+  </si>
+  <si>
+    <t>Originating Country</t>
+  </si>
+  <si>
+    <t>ORIG_COUNTRY</t>
+  </si>
+  <si>
+    <t>Terminating City</t>
+  </si>
+  <si>
+    <t>TERM_CITY</t>
+  </si>
+  <si>
+    <t>Terminating State</t>
+  </si>
+  <si>
+    <t>TERM_STATE</t>
+  </si>
+  <si>
+    <t>Terminating Country</t>
+  </si>
+  <si>
+    <t>TERM_COUNTRY</t>
+  </si>
+  <si>
+    <t>Reserved 53</t>
+  </si>
+  <si>
+    <t>Reserved 54</t>
+  </si>
+  <si>
+    <t>Reserved 55</t>
+  </si>
+  <si>
+    <t>Reserved 56</t>
+  </si>
+  <si>
+    <t>Reserved 57</t>
+  </si>
+  <si>
+    <t>Call Duration</t>
+  </si>
+  <si>
+    <t>CALL_DURATION</t>
+  </si>
+  <si>
+    <t>Reserved 58</t>
+  </si>
+  <si>
+    <t>Reserved 59</t>
+  </si>
+  <si>
+    <t>Reserved 60</t>
+  </si>
+  <si>
+    <t>Reserved 61</t>
+  </si>
+  <si>
+    <t>Reserved 62</t>
+  </si>
+  <si>
+    <t>Reserved 63</t>
+  </si>
+  <si>
+    <t>Reserved 64</t>
+  </si>
+  <si>
+    <t>Reserved 65</t>
+  </si>
+  <si>
+    <t>Reserved 66</t>
+  </si>
+  <si>
+    <t>Reserved 67</t>
+  </si>
+  <si>
+    <t>Reserved 68</t>
+  </si>
+  <si>
+    <t>Reserved 69</t>
+  </si>
+  <si>
+    <t>Reserved 70</t>
+  </si>
+  <si>
+    <t>Reserved 71</t>
+  </si>
+  <si>
+    <t>Reserved 72</t>
+  </si>
+  <si>
+    <t>Reserved 73</t>
+  </si>
+  <si>
+    <t>Reserved 74</t>
+  </si>
+  <si>
+    <t>Reserved 75</t>
+  </si>
+  <si>
+    <t>Reserved 76</t>
+  </si>
+  <si>
+    <t>Reserved 77</t>
+  </si>
+  <si>
+    <t>Reserved 78</t>
+  </si>
+  <si>
+    <t>Reserved 79</t>
+  </si>
+  <si>
+    <t>CSG Call Type</t>
+  </si>
+  <si>
+    <t>See table B9e</t>
+  </si>
+  <si>
+    <t>Reserved 80</t>
+  </si>
+  <si>
+    <t>Reserved 81</t>
+  </si>
+  <si>
+    <t>Residential / Commercial Flag</t>
+  </si>
+  <si>
+    <t>If ACCOUNT TYPE = “R” then set to “R”, else set to “C”</t>
+  </si>
+  <si>
+    <t>Reserved 82</t>
+  </si>
+  <si>
+    <t>Service Code</t>
+  </si>
+  <si>
+    <t>SERVICE_CODE</t>
+  </si>
+  <si>
+    <t>Reserved 83</t>
+  </si>
+  <si>
+    <t>Reserved 84</t>
+  </si>
+  <si>
+    <t>Reserved 85</t>
+  </si>
+  <si>
+    <t>Reserved 86</t>
+  </si>
+  <si>
+    <t>Reserved 87</t>
+  </si>
+  <si>
+    <t>Reserved 88</t>
+  </si>
+  <si>
+    <t>Reserved 89</t>
+  </si>
+  <si>
+    <t>Reserved 90</t>
+  </si>
+  <si>
+    <t>Reserved 91</t>
+  </si>
+  <si>
+    <t>Reserved 92</t>
+  </si>
+  <si>
+    <t>Reserved 93</t>
+  </si>
+  <si>
+    <t>Reserved 94</t>
+  </si>
+  <si>
+    <t>Reserved 95</t>
+  </si>
+  <si>
+    <t>Reserved 96</t>
+  </si>
+  <si>
+    <t>Reserved 97</t>
+  </si>
+  <si>
+    <t>Reserved 98</t>
+  </si>
+  <si>
+    <t>Reserved 99</t>
+  </si>
+  <si>
+    <t>Reserved 100</t>
+  </si>
+  <si>
+    <t>Reserved 101</t>
+  </si>
+  <si>
+    <t>Reserved 102</t>
+  </si>
+  <si>
+    <t>Reserved 103</t>
+  </si>
+  <si>
+    <t>Reserved 104</t>
+  </si>
+  <si>
+    <t>Reserved 105</t>
+  </si>
+  <si>
+    <t>Charge Amount</t>
+  </si>
+  <si>
+    <t>Char (Decimal)</t>
+  </si>
+  <si>
+    <t>AR ROUNDED_PRICE</t>
+  </si>
+  <si>
+    <t>(DDDD.CC)</t>
+  </si>
+  <si>
+    <t>Reserved 106</t>
+  </si>
+  <si>
+    <t>Reserved 107</t>
+  </si>
+  <si>
+    <t>Reserved 108</t>
+  </si>
+  <si>
+    <t>End of record</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,8 +1142,40 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,8 +1188,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDD9C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -590,12 +1218,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,6 +1364,72 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -961,9 +1738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2895,4 +3672,2363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D16" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D26" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D30" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="26">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="32">
+        <v>12</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="32">
+        <v>2</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="43">
+        <v>16</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="32">
+        <v>16</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="32">
+        <v>32</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="32">
+        <v>16</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C24" s="32">
+        <v>32</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="32">
+        <v>16</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="32">
+        <v>64</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="32">
+        <v>32</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C65" s="32">
+        <v>32</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="32">
+        <v>64</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="32">
+        <v>32</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C68" s="32">
+        <v>32</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="30" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="30" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="32">
+        <v>16</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C77" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C78" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="B79" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="B80" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="B85" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="B86" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="B87" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C88" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="B89" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C89" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C90" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C91" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="B93" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C93" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="B94" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="32">
+        <v>16</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="B98" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C98" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C100" s="32">
+        <v>1</v>
+      </c>
+      <c r="D100" s="34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C102" s="32">
+        <v>16</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="B104" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="B105" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="B106" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="B107" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B109" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C110" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B111" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="30" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C112" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B113" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C113" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B114" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C114" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B115" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C115" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C116" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C117" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C121" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="30" t="s">
+        <v>345</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C122" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="30" t="s">
+        <v>346</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C123" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C124" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B126" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="C126" s="40">
+        <v>6</v>
+      </c>
+      <c r="D126" s="33" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="39"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="34" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="30" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="B129" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D129" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="30" t="s">
+        <v>355</v>
+      </c>
+      <c r="B130" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="31" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="B131" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="32">
+        <v>1</v>
+      </c>
+      <c r="D131" s="31">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>